--- a/testDataResources/testData.xlsx
+++ b/testDataResources/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Demo\testDataResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\DemoMST\testDataResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5D2327-EFFF-4C5F-8B6E-7BB91C42F71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D789C2-572A-4BBA-8D85-5BCB52942164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>PAYMENT SUCCESS</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Message</t>
+  </si>
+  <si>
+    <t>PAYMENT FAILURE</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
     </row>
     <row r="3" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
